--- a/ProyectoIntegrador/Analisis de datos.xlsx
+++ b/ProyectoIntegrador/Analisis de datos.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandra Paute\AvanceProyecto\ProyectoIntegrador\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E936E117-B21A-4C94-8633-CF25296B9BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
   <si>
     <t>Columna</t>
   </si>
@@ -211,31 +220,31 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
@@ -245,52 +254,59 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -480,26 +496,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.43"/>
-    <col customWidth="1" min="2" max="2" width="16.71"/>
-    <col customWidth="1" min="3" max="3" width="39.43"/>
-    <col customWidth="1" min="4" max="4" width="33.71"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +535,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -528,7 +549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -542,7 +563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="31.5" customHeight="1">
+    <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -556,7 +577,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -570,7 +591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -584,7 +605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="29.25" customHeight="1">
+    <row r="7" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -598,7 +619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -612,7 +633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -626,7 +647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -640,7 +661,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
@@ -654,7 +675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>34</v>
       </c>
@@ -668,7 +689,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
@@ -682,7 +703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
@@ -696,7 +717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
@@ -710,7 +731,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
@@ -724,7 +745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
@@ -738,7 +759,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
@@ -752,7 +773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>50</v>
       </c>
@@ -766,7 +787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
@@ -780,7 +801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>54</v>
       </c>
@@ -794,7 +815,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>57</v>
       </c>
@@ -808,7 +829,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>59</v>
       </c>
@@ -822,7 +843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>61</v>
       </c>
@@ -836,11 +857,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C25" s="4" t="s">
         <v>64</v>
       </c>
@@ -849,6 +872,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>